--- a/replication/results/figureA2_police_report_only.xlsx
+++ b/replication/results/figureA2_police_report_only.xlsx
@@ -34,58 +34,58 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(1.21)</t>
-  </si>
-  <si>
-    <t>(0.8)</t>
-  </si>
-  <si>
-    <t>(0.85)</t>
-  </si>
-  <si>
-    <t>(0.68)</t>
-  </si>
-  <si>
-    <t>(1.5)</t>
+    <t>(1.04)</t>
+  </si>
+  <si>
+    <t>(0.69)</t>
   </si>
   <si>
     <t>(0.97)</t>
   </si>
   <si>
-    <t>(1.72)</t>
-  </si>
-  <si>
-    <t>(1.39)</t>
-  </si>
-  <si>
-    <t>(1.56)</t>
-  </si>
-  <si>
-    <t>(1.04)</t>
+    <t>(0.76)</t>
+  </si>
+  <si>
+    <t>(1.38)</t>
+  </si>
+  <si>
+    <t>(0.87)</t>
+  </si>
+  <si>
+    <t>(1.87)</t>
+  </si>
+  <si>
+    <t>(1.28)</t>
+  </si>
+  <si>
+    <t>(1.63)</t>
+  </si>
+  <si>
+    <t>(1.19)</t>
+  </si>
+  <si>
+    <t>(1.69)</t>
+  </si>
+  <si>
+    <t>(1.11)</t>
   </si>
   <si>
     <t>(1.57)</t>
   </si>
   <si>
-    <t>(1.1)</t>
-  </si>
-  <si>
-    <t>(1.31)</t>
-  </si>
-  <si>
-    <t>(1.07)</t>
-  </si>
-  <si>
-    <t>(2.36)</t>
-  </si>
-  <si>
-    <t>(1.48)</t>
-  </si>
-  <si>
-    <t>(1.7)</t>
-  </si>
-  <si>
-    <t>(1.19)</t>
+    <t>(1.16)</t>
+  </si>
+  <si>
+    <t>(2.57)</t>
+  </si>
+  <si>
+    <t>(1.53)</t>
+  </si>
+  <si>
+    <t>(1.86)</t>
+  </si>
+  <si>
+    <t>(1.25)</t>
   </si>
 </sst>
 </file>
